--- a/findx/Excel/Wing_翅膀.xlsx
+++ b/findx/Excel/Wing_翅膀.xlsx
@@ -51,14 +51,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF1F2329"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -461,31 +461,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="3" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="3" t="str">
         <v>int</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="3" t="str">
         <v>string</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="3" t="str">
         <v>string</v>
       </c>
-      <c r="E1" s="3" t="str">
+      <c r="E1" s="2" t="str">
         <v>Vector3</v>
       </c>
-      <c r="F1" s="3" t="str">
+      <c r="F1" s="2" t="str">
         <v>Vector3</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <v>Vector3</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="3" t="str">
         <v>int</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="3" t="str">
         <v>String</v>
       </c>
       <c r="J1" s="1"/>
@@ -502,31 +502,31 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="3" t="str">
         <v>id</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="3" t="str">
         <v>IsIAA</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="3" t="str">
         <v>WingGuid</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="3" t="str">
         <v>WingIcon</v>
       </c>
-      <c r="E2" s="3" t="str">
+      <c r="E2" s="2" t="str">
         <v>WingOffset</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" s="2" t="str">
         <v>WingRotation</v>
       </c>
-      <c r="G2" s="3" t="str">
+      <c r="G2" s="2" t="str">
         <v>WingScale</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="3" t="str">
         <v>Speed</v>
       </c>
-      <c r="I2" s="2" t="str">
+      <c r="I2" s="3" t="str">
         <v>Annotation</v>
       </c>
       <c r="J2" s="1"/>
@@ -543,32 +543,32 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="3" t="str">
         <v>唯一ID</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="3" t="str">
         <v>0:直接使用
 1：看广告使用</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="3" t="str">
         <v>翅膀的Guid</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="3" t="str">
         <v>WingIcon</v>
       </c>
-      <c r="E3" s="3" t="str">
+      <c r="E3" s="2" t="str">
         <v>偏移</v>
       </c>
-      <c r="F3" s="3" t="str">
+      <c r="F3" s="2" t="str">
         <v>旋转</v>
       </c>
-      <c r="G3" s="3" t="str">
+      <c r="G3" s="2" t="str">
         <v>缩放</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="3" t="str">
         <v>飞行速度|移动速度</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="3" t="str">
         <v>注释</v>
       </c>
       <c r="J3" s="1"/>
@@ -585,15 +585,15 @@
       <c r="U3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -608,20 +608,20 @@
       <c r="U4" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="5">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
         <v>178220</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -637,11 +637,11 @@
       <c r="U5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>42814</v>
@@ -649,16 +649,16 @@
       <c r="D6" s="1">
         <v>145165</v>
       </c>
-      <c r="E6" s="3" t="str">
+      <c r="E6" s="2" t="str">
         <v>0|0|20</v>
       </c>
-      <c r="F6" s="3" t="str">
+      <c r="F6" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G6" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H6" s="3">
         <v>800</v>
       </c>
       <c r="I6" s="1"/>
@@ -676,10 +676,10 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="1">
@@ -688,16 +688,16 @@
       <c r="D7" s="1">
         <v>83140</v>
       </c>
-      <c r="E7" s="3" t="str">
+      <c r="E7" s="2" t="str">
         <v>0|0|7</v>
       </c>
-      <c r="F7" s="3" t="str">
+      <c r="F7" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G7" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H7" s="3">
         <v>800</v>
       </c>
       <c r="I7" s="1"/>
@@ -715,10 +715,10 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="1">
@@ -727,16 +727,16 @@
       <c r="D8" s="1">
         <v>174366</v>
       </c>
-      <c r="E8" s="3" t="str">
+      <c r="E8" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F8" s="3" t="str">
+      <c r="F8" s="2" t="str">
         <v>0|0|180</v>
       </c>
-      <c r="G8" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G8" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H8" s="3">
         <v>800</v>
       </c>
       <c r="I8" s="1"/>
@@ -754,7 +754,7 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="1">
@@ -766,16 +766,16 @@
       <c r="D9" s="1">
         <v>174339</v>
       </c>
-      <c r="E9" s="3" t="str">
+      <c r="E9" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F9" s="3" t="str">
+      <c r="F9" s="2" t="str">
         <v>0|0|180</v>
       </c>
-      <c r="G9" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H9" s="3">
         <v>800</v>
       </c>
       <c r="I9" s="1"/>
@@ -793,10 +793,10 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1">
@@ -805,16 +805,16 @@
       <c r="D10" s="1">
         <v>174341</v>
       </c>
-      <c r="E10" s="3" t="str">
+      <c r="E10" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F10" s="3" t="str">
+      <c r="F10" s="2" t="str">
         <v>0|0|180</v>
       </c>
-      <c r="G10" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H10" s="3">
         <v>800</v>
       </c>
       <c r="I10" s="1"/>
@@ -832,10 +832,10 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="1">
@@ -844,16 +844,16 @@
       <c r="D11" s="1">
         <v>174342</v>
       </c>
-      <c r="E11" s="3" t="str">
+      <c r="E11" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F11" s="3" t="str">
+      <c r="F11" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G11" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="G11" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H11" s="3">
         <v>800</v>
       </c>
       <c r="I11" s="1"/>
@@ -871,7 +871,7 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" s="1">
@@ -883,16 +883,16 @@
       <c r="D12" s="1">
         <v>174360</v>
       </c>
-      <c r="E12" s="3" t="str">
+      <c r="E12" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F12" s="3" t="str">
+      <c r="F12" s="2" t="str">
         <v>0|0|180</v>
       </c>
-      <c r="G12" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H12" s="3">
         <v>800</v>
       </c>
       <c r="I12" s="1"/>
@@ -910,10 +910,10 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="1">
@@ -922,16 +922,16 @@
       <c r="D13" s="1">
         <v>174375</v>
       </c>
-      <c r="E13" s="3" t="str">
+      <c r="E13" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F13" s="3" t="str">
+      <c r="F13" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G13" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="G13" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H13" s="3">
         <v>800</v>
       </c>
       <c r="I13" s="1"/>
@@ -949,7 +949,7 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" s="1">
@@ -961,16 +961,16 @@
       <c r="D14" s="1">
         <v>174353</v>
       </c>
-      <c r="E14" s="3" t="str">
+      <c r="E14" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F14" s="3" t="str">
+      <c r="F14" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G14" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H14" s="3">
         <v>800</v>
       </c>
       <c r="I14" s="1"/>
@@ -988,7 +988,7 @@
       <c r="U14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" s="1">
@@ -1000,16 +1000,16 @@
       <c r="D15" s="1">
         <v>174371</v>
       </c>
-      <c r="E15" s="3" t="str">
+      <c r="E15" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F15" s="3" t="str">
+      <c r="F15" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G15" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="G15" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H15" s="3">
         <v>800</v>
       </c>
       <c r="I15" s="1"/>
@@ -1027,7 +1027,7 @@
       <c r="U15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="1">
@@ -1039,16 +1039,16 @@
       <c r="D16" s="1">
         <v>174331</v>
       </c>
-      <c r="E16" s="3" t="str">
+      <c r="E16" s="2" t="str">
         <v>0|0|-25</v>
       </c>
-      <c r="F16" s="3" t="str">
+      <c r="F16" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G16" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H16" s="3">
         <v>800</v>
       </c>
       <c r="I16" s="1"/>
@@ -1066,10 +1066,10 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17" s="1">
@@ -1078,16 +1078,16 @@
       <c r="D17" s="1">
         <v>174327</v>
       </c>
-      <c r="E17" s="3" t="str">
+      <c r="E17" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F17" s="3" t="str">
+      <c r="F17" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G17" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="1"/>
@@ -1105,7 +1105,7 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="1">
@@ -1117,16 +1117,16 @@
       <c r="D18" s="1">
         <v>174379</v>
       </c>
-      <c r="E18" s="3" t="str">
+      <c r="E18" s="2" t="str">
         <v>0|0|13</v>
       </c>
-      <c r="F18" s="3" t="str">
+      <c r="F18" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G18" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="G18" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H18" s="3">
         <v>800</v>
       </c>
       <c r="I18" s="1"/>
@@ -1144,7 +1144,7 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" s="1">
@@ -1156,16 +1156,16 @@
       <c r="D19" s="1">
         <v>174376</v>
       </c>
-      <c r="E19" s="3" t="str">
+      <c r="E19" s="2" t="str">
         <v>0|0|-15</v>
       </c>
-      <c r="F19" s="3" t="str">
+      <c r="F19" s="2" t="str">
         <v>0|0|180</v>
       </c>
-      <c r="G19" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H19" s="3">
         <v>800</v>
       </c>
       <c r="I19" s="1"/>
@@ -1183,7 +1183,7 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" s="1">
@@ -1195,16 +1195,16 @@
       <c r="D20" s="1">
         <v>145168</v>
       </c>
-      <c r="E20" s="3" t="str">
+      <c r="E20" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F20" s="3" t="str">
+      <c r="F20" s="2" t="str">
         <v>0|0|180</v>
       </c>
-      <c r="G20" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="G20" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H20" s="3">
         <v>800</v>
       </c>
       <c r="I20" s="1"/>
@@ -1222,7 +1222,7 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
       <c r="B21" s="1">
@@ -1234,16 +1234,16 @@
       <c r="D21" s="1">
         <v>174338</v>
       </c>
-      <c r="E21" s="3" t="str">
+      <c r="E21" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F21" s="3" t="str">
+      <c r="F21" s="2" t="str">
         <v>0|0|180</v>
       </c>
-      <c r="G21" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="G21" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H21" s="3">
         <v>800</v>
       </c>
       <c r="I21" s="1"/>
@@ -1261,10 +1261,10 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" s="1">
@@ -1273,16 +1273,16 @@
       <c r="D22" s="1">
         <v>174330</v>
       </c>
-      <c r="E22" s="3" t="str">
+      <c r="E22" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F22" s="3" t="str">
+      <c r="F22" s="2" t="str">
         <v>0|0|180</v>
       </c>
-      <c r="G22" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="G22" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H22" s="3">
         <v>800</v>
       </c>
       <c r="I22" s="1"/>
@@ -1300,7 +1300,7 @@
       <c r="U22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" s="1">
@@ -1312,16 +1312,16 @@
       <c r="D23" s="1">
         <v>174348</v>
       </c>
-      <c r="E23" s="3" t="str">
+      <c r="E23" s="2" t="str">
         <v>0|0|-5</v>
       </c>
-      <c r="F23" s="3" t="str">
+      <c r="F23" s="2" t="str">
         <v>0|0|180</v>
       </c>
-      <c r="G23" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="G23" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H23" s="3">
         <v>800</v>
       </c>
       <c r="I23" s="1"/>
@@ -1339,7 +1339,7 @@
       <c r="U23" s="1"/>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24" s="1">
@@ -1351,16 +1351,16 @@
       <c r="D24" s="1">
         <v>174382</v>
       </c>
-      <c r="E24" s="3" t="str">
+      <c r="E24" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F24" s="3" t="str">
+      <c r="F24" s="2" t="str">
         <v>0|0|180</v>
       </c>
-      <c r="G24" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="G24" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H24" s="3">
         <v>800</v>
       </c>
       <c r="I24" s="1"/>
@@ -1378,7 +1378,7 @@
       <c r="U24" s="1"/>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>21</v>
       </c>
       <c r="B25" s="1">
@@ -1390,16 +1390,16 @@
       <c r="D25" s="1">
         <v>174347</v>
       </c>
-      <c r="E25" s="3" t="str">
+      <c r="E25" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F25" s="3" t="str">
+      <c r="F25" s="2" t="str">
         <v>0|0|180</v>
       </c>
-      <c r="G25" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="G25" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H25" s="3">
         <v>800</v>
       </c>
       <c r="I25" s="1"/>
@@ -1417,7 +1417,7 @@
       <c r="U25" s="1"/>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>22</v>
       </c>
       <c r="B26" s="1">
@@ -1429,16 +1429,16 @@
       <c r="D26" s="1">
         <v>145170</v>
       </c>
-      <c r="E26" s="3" t="str">
+      <c r="E26" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F26" s="3" t="str">
+      <c r="F26" s="2" t="str">
         <v>0|0|180</v>
       </c>
-      <c r="G26" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="G26" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H26" s="3">
         <v>800</v>
       </c>
       <c r="I26" s="1"/>
@@ -1456,10 +1456,10 @@
       <c r="U26" s="1"/>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>1</v>
       </c>
       <c r="C27" s="1">
@@ -1468,16 +1468,16 @@
       <c r="D27" s="1">
         <v>174373</v>
       </c>
-      <c r="E27" s="3" t="str">
+      <c r="E27" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F27" s="3" t="str">
+      <c r="F27" s="2" t="str">
         <v>0|0|180</v>
       </c>
-      <c r="G27" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="G27" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H27" s="3">
         <v>800</v>
       </c>
       <c r="I27" s="1"/>
@@ -1495,7 +1495,7 @@
       <c r="U27" s="1"/>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>24</v>
       </c>
       <c r="B28" s="1">
@@ -1507,16 +1507,16 @@
       <c r="D28" s="1">
         <v>174380</v>
       </c>
-      <c r="E28" s="3" t="str">
+      <c r="E28" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F28" s="3" t="str">
+      <c r="F28" s="2" t="str">
         <v>0|0|180</v>
       </c>
-      <c r="G28" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="G28" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H28" s="3">
         <v>800</v>
       </c>
       <c r="I28" s="1"/>
@@ -1534,7 +1534,7 @@
       <c r="U28" s="1"/>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>1</v>
       </c>
@@ -1542,16 +1542,16 @@
         <v>177589</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="3" t="str">
+      <c r="E29" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F29" s="3" t="str">
+      <c r="F29" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G29" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H29" s="2">
+      <c r="G29" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H29" s="3">
         <v>800</v>
       </c>
       <c r="I29" s="1"/>
@@ -1569,7 +1569,7 @@
       <c r="U29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>1</v>
       </c>
@@ -1577,16 +1577,16 @@
         <v>178438</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="3" t="str">
+      <c r="E30" s="2" t="str">
         <v>0|0|20</v>
       </c>
-      <c r="F30" s="3" t="str">
+      <c r="F30" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G30" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="G30" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H30" s="3">
         <v>800</v>
       </c>
       <c r="I30" s="1"/>
@@ -1604,7 +1604,7 @@
       <c r="U30" s="1"/>
     </row>
     <row r="31">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>1</v>
       </c>
@@ -1612,16 +1612,16 @@
         <v>42804</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="3" t="str">
+      <c r="E31" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F31" s="3" t="str">
+      <c r="F31" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G31" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="G31" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H31" s="3">
         <v>800</v>
       </c>
       <c r="I31" s="1"/>
@@ -1639,7 +1639,7 @@
       <c r="U31" s="1"/>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>1</v>
       </c>
@@ -1647,16 +1647,16 @@
         <v>42805</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="3" t="str">
+      <c r="E32" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F32" s="3" t="str">
+      <c r="F32" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G32" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="G32" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H32" s="3">
         <v>800</v>
       </c>
       <c r="I32" s="1"/>
@@ -1674,7 +1674,7 @@
       <c r="U32" s="1"/>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>1</v>
       </c>
@@ -1682,16 +1682,16 @@
         <v>42806</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="3" t="str">
+      <c r="E33" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F33" s="3" t="str">
+      <c r="F33" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G33" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="G33" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H33" s="3">
         <v>800</v>
       </c>
       <c r="I33" s="1"/>
@@ -1709,7 +1709,7 @@
       <c r="U33" s="1"/>
     </row>
     <row r="34">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>1</v>
       </c>
@@ -1717,16 +1717,16 @@
         <v>42807</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="3" t="str">
+      <c r="E34" s="2" t="str">
         <v>0|0|-25</v>
       </c>
-      <c r="F34" s="3" t="str">
+      <c r="F34" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G34" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="G34" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H34" s="3">
         <v>800</v>
       </c>
       <c r="I34" s="1"/>
@@ -1744,24 +1744,24 @@
       <c r="U34" s="1"/>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3">
         <v>1</v>
       </c>
       <c r="C35" s="1">
         <v>42808</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="3" t="str">
+      <c r="E35" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F35" s="3" t="str">
+      <c r="F35" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G35" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H35" s="2">
+      <c r="G35" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H35" s="3">
         <v>800</v>
       </c>
       <c r="I35" s="1"/>
@@ -1779,7 +1779,7 @@
       <c r="U35" s="1"/>
     </row>
     <row r="36">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>1</v>
       </c>
@@ -1787,16 +1787,16 @@
         <v>42809</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="3" t="str">
+      <c r="E36" s="2" t="str">
         <v>0|0|-25</v>
       </c>
-      <c r="F36" s="3" t="str">
+      <c r="F36" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G36" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H36" s="2">
+      <c r="G36" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H36" s="3">
         <v>800</v>
       </c>
       <c r="I36" s="1"/>
@@ -1814,7 +1814,7 @@
       <c r="U36" s="1"/>
     </row>
     <row r="37">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>1</v>
       </c>
@@ -1822,16 +1822,16 @@
         <v>42810</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="3" t="str">
+      <c r="E37" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F37" s="3" t="str">
+      <c r="F37" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G37" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H37" s="2">
+      <c r="G37" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H37" s="3">
         <v>800</v>
       </c>
       <c r="I37" s="1"/>
@@ -1849,7 +1849,7 @@
       <c r="U37" s="1"/>
     </row>
     <row r="38">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>1</v>
       </c>
@@ -1857,16 +1857,16 @@
         <v>42811</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="3" t="str">
+      <c r="E38" s="2" t="str">
         <v>0|0|-20</v>
       </c>
-      <c r="F38" s="3" t="str">
+      <c r="F38" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G38" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H38" s="2">
+      <c r="G38" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H38" s="3">
         <v>800</v>
       </c>
       <c r="I38" s="1"/>
@@ -1884,7 +1884,7 @@
       <c r="U38" s="1"/>
     </row>
     <row r="39">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>1</v>
       </c>
@@ -1892,16 +1892,16 @@
         <v>42812</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="3" t="str">
+      <c r="E39" s="2" t="str">
         <v>0|0|-25</v>
       </c>
-      <c r="F39" s="3" t="str">
+      <c r="F39" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G39" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H39" s="2">
+      <c r="G39" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H39" s="3">
         <v>800</v>
       </c>
       <c r="I39" s="1"/>
@@ -1919,24 +1919,24 @@
       <c r="U39" s="1"/>
     </row>
     <row r="40">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3">
         <v>1</v>
       </c>
       <c r="C40" s="1">
         <v>42813</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="3" t="str">
+      <c r="E40" s="2" t="str">
         <v>0|0|-25</v>
       </c>
-      <c r="F40" s="3" t="str">
+      <c r="F40" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G40" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H40" s="2">
+      <c r="G40" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H40" s="3">
         <v>800</v>
       </c>
       <c r="I40" s="1"/>
@@ -1954,7 +1954,7 @@
       <c r="U40" s="1"/>
     </row>
     <row r="41">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>1</v>
       </c>
@@ -1962,16 +1962,16 @@
         <v>42815</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="3" t="str">
+      <c r="E41" s="2" t="str">
         <v>0|0|15</v>
       </c>
-      <c r="F41" s="3" t="str">
+      <c r="F41" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G41" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H41" s="2">
+      <c r="G41" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H41" s="3">
         <v>800</v>
       </c>
       <c r="I41" s="1"/>
@@ -1989,7 +1989,7 @@
       <c r="U41" s="1"/>
     </row>
     <row r="42">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>1</v>
       </c>
@@ -1997,16 +1997,16 @@
         <v>42816</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="3" t="str">
+      <c r="E42" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F42" s="3" t="str">
+      <c r="F42" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G42" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H42" s="2">
+      <c r="G42" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H42" s="3">
         <v>800</v>
       </c>
       <c r="I42" s="1"/>
@@ -2024,7 +2024,7 @@
       <c r="U42" s="1"/>
     </row>
     <row r="43">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>1</v>
       </c>
@@ -2032,16 +2032,16 @@
         <v>42817</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="3" t="str">
+      <c r="E43" s="2" t="str">
         <v>0|0|15</v>
       </c>
-      <c r="F43" s="3" t="str">
+      <c r="F43" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G43" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H43" s="2">
+      <c r="G43" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H43" s="3">
         <v>800</v>
       </c>
       <c r="I43" s="1"/>
@@ -2059,24 +2059,24 @@
       <c r="U43" s="1"/>
     </row>
     <row r="44">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3">
         <v>1</v>
       </c>
       <c r="C44" s="1">
         <v>42818</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="3" t="str">
+      <c r="E44" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F44" s="3" t="str">
+      <c r="F44" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G44" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H44" s="2">
+      <c r="G44" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H44" s="3">
         <v>800</v>
       </c>
       <c r="I44" s="1"/>
@@ -2094,7 +2094,7 @@
       <c r="U44" s="1"/>
     </row>
     <row r="45">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>1</v>
       </c>
@@ -2102,16 +2102,16 @@
         <v>42819</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="3" t="str">
+      <c r="E45" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F45" s="3" t="str">
+      <c r="F45" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G45" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H45" s="2">
+      <c r="G45" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H45" s="3">
         <v>800</v>
       </c>
       <c r="I45" s="1"/>
@@ -2129,7 +2129,7 @@
       <c r="U45" s="1"/>
     </row>
     <row r="46">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1">
         <v>1</v>
       </c>
@@ -2137,16 +2137,16 @@
         <v>42820</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="3" t="str">
+      <c r="E46" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F46" s="3" t="str">
+      <c r="F46" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G46" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H46" s="2">
+      <c r="G46" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H46" s="3">
         <v>800</v>
       </c>
       <c r="I46" s="1"/>
@@ -2164,7 +2164,7 @@
       <c r="U46" s="1"/>
     </row>
     <row r="47">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>1</v>
       </c>
@@ -2172,16 +2172,16 @@
         <v>42821</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="3" t="str">
+      <c r="E47" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F47" s="3" t="str">
+      <c r="F47" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G47" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H47" s="2">
+      <c r="G47" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H47" s="3">
         <v>800</v>
       </c>
       <c r="I47" s="1"/>
@@ -2199,7 +2199,7 @@
       <c r="U47" s="1"/>
     </row>
     <row r="48">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>1</v>
       </c>
@@ -2207,16 +2207,16 @@
         <v>42822</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="3" t="str">
+      <c r="E48" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F48" s="3" t="str">
+      <c r="F48" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G48" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H48" s="2">
+      <c r="G48" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H48" s="3">
         <v>800</v>
       </c>
       <c r="I48" s="1"/>
@@ -2234,7 +2234,7 @@
       <c r="U48" s="1"/>
     </row>
     <row r="49">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>1</v>
       </c>
@@ -2242,16 +2242,16 @@
         <v>42824</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="3" t="str">
+      <c r="E49" s="2" t="str">
         <v>0|0|15</v>
       </c>
-      <c r="F49" s="3" t="str">
+      <c r="F49" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G49" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H49" s="2">
+      <c r="G49" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H49" s="3">
         <v>800</v>
       </c>
       <c r="I49" s="1"/>
@@ -2269,7 +2269,7 @@
       <c r="U49" s="1"/>
     </row>
     <row r="50">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>1</v>
       </c>
@@ -2277,16 +2277,16 @@
         <v>42825</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="3" t="str">
+      <c r="E50" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F50" s="3" t="str">
+      <c r="F50" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G50" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H50" s="2">
+      <c r="G50" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H50" s="3">
         <v>800</v>
       </c>
       <c r="I50" s="1"/>
@@ -2304,7 +2304,7 @@
       <c r="U50" s="1"/>
     </row>
     <row r="51">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>1</v>
       </c>
@@ -2312,16 +2312,16 @@
         <v>42826</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="3" t="str">
+      <c r="E51" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F51" s="3" t="str">
+      <c r="F51" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G51" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H51" s="2">
+      <c r="G51" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H51" s="3">
         <v>800</v>
       </c>
       <c r="I51" s="1"/>
@@ -2339,7 +2339,7 @@
       <c r="U51" s="1"/>
     </row>
     <row r="52">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>1</v>
       </c>
@@ -2347,16 +2347,16 @@
         <v>42827</v>
       </c>
       <c r="D52" s="1"/>
-      <c r="E52" s="3" t="str">
+      <c r="E52" s="2" t="str">
         <v>0|0|15</v>
       </c>
-      <c r="F52" s="3" t="str">
+      <c r="F52" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G52" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H52" s="2">
+      <c r="G52" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H52" s="3">
         <v>800</v>
       </c>
       <c r="I52" s="1"/>
@@ -2374,24 +2374,24 @@
       <c r="U52" s="1"/>
     </row>
     <row r="53">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3">
         <v>1</v>
       </c>
       <c r="C53" s="1">
         <v>42828</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="E53" s="3" t="str">
+      <c r="E53" s="2" t="str">
         <v>0|0|15</v>
       </c>
-      <c r="F53" s="3" t="str">
+      <c r="F53" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G53" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H53" s="2">
+      <c r="G53" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H53" s="3">
         <v>800</v>
       </c>
       <c r="I53" s="1"/>
@@ -2409,7 +2409,7 @@
       <c r="U53" s="1"/>
     </row>
     <row r="54">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>1</v>
       </c>
@@ -2417,16 +2417,16 @@
         <v>42829</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="3" t="str">
+      <c r="E54" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F54" s="3" t="str">
+      <c r="F54" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G54" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H54" s="2">
+      <c r="G54" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H54" s="3">
         <v>800</v>
       </c>
       <c r="I54" s="1"/>
@@ -2444,7 +2444,7 @@
       <c r="U54" s="1"/>
     </row>
     <row r="55">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>1</v>
       </c>
@@ -2452,16 +2452,16 @@
         <v>42830</v>
       </c>
       <c r="D55" s="1"/>
-      <c r="E55" s="3" t="str">
+      <c r="E55" s="2" t="str">
         <v>0|0|-25</v>
       </c>
-      <c r="F55" s="3" t="str">
+      <c r="F55" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G55" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H55" s="2">
+      <c r="G55" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H55" s="3">
         <v>800</v>
       </c>
       <c r="I55" s="1"/>
@@ -2479,7 +2479,7 @@
       <c r="U55" s="1"/>
     </row>
     <row r="56">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>1</v>
       </c>
@@ -2487,16 +2487,16 @@
         <v>42831</v>
       </c>
       <c r="D56" s="1"/>
-      <c r="E56" s="3" t="str">
+      <c r="E56" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F56" s="3" t="str">
+      <c r="F56" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G56" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H56" s="2">
+      <c r="G56" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H56" s="3">
         <v>800</v>
       </c>
       <c r="I56" s="1"/>
@@ -2514,7 +2514,7 @@
       <c r="U56" s="1"/>
     </row>
     <row r="57">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1">
         <v>1</v>
       </c>
@@ -2522,16 +2522,16 @@
         <v>42832</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="3" t="str">
+      <c r="E57" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F57" s="3" t="str">
+      <c r="F57" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G57" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H57" s="2">
+      <c r="G57" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H57" s="3">
         <v>800</v>
       </c>
       <c r="I57" s="1"/>
@@ -2549,7 +2549,7 @@
       <c r="U57" s="1"/>
     </row>
     <row r="58">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1">
         <v>1</v>
       </c>
@@ -2557,16 +2557,16 @@
         <v>145909</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="E58" s="3" t="str">
+      <c r="E58" s="2" t="str">
         <v>0|0|-5</v>
       </c>
-      <c r="F58" s="3" t="str">
+      <c r="F58" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G58" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H58" s="2">
+      <c r="G58" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H58" s="3">
         <v>800</v>
       </c>
       <c r="I58" s="1"/>
@@ -2584,24 +2584,24 @@
       <c r="U58" s="1"/>
     </row>
     <row r="59">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3">
         <v>42803</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="3" t="str">
+      <c r="D59" s="3"/>
+      <c r="E59" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="F59" s="3" t="str">
+      <c r="F59" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="G59" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H59" s="2">
+      <c r="G59" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H59" s="3">
         <v>800</v>
       </c>
       <c r="I59" s="1"/>
